--- a/medicine/Psychotrope/Mokarex/Mokarex.xlsx
+++ b/medicine/Psychotrope/Mokarex/Mokarex.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mokarex est une marque française de café dont l'usine de conditionnement était située à Épinay-sur-Seine. Cette marque appartient aujourd'hui à la société Legal. Ces derniers produisent encore le café Mokarex mais uniquement pour la grande restauration. 
 </t>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1948, Mokarex installe une unité de torréfaction à Épinay-sur-Seine dans des bâtiments modernes en béton. Çette usine reste en activité jusqu'en 1985[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1948, Mokarex installe une unité de torréfaction à Épinay-sur-Seine dans des bâtiments modernes en béton. Çette usine reste en activité jusqu'en 1985.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Figurines</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mokarex est également connue pour ses petits soldats en plastique doré ou gris présents dans les paquets de café. Ceux-ci se collectionnent encore[2]. Les figurines appartiennent à la société Effigie.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mokarex est également connue pour ses petits soldats en plastique doré ou gris présents dans les paquets de café. Ceux-ci se collectionnent encore. Les figurines appartiennent à la société Effigie.
 </t>
         </is>
       </c>
